--- a/mock_data.xlsx
+++ b/mock_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\My Files\vidforge\vid-img-forg-det\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE3A3C-BC72-4B3B-A2C1-C09D46C8F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF1F1A-8C53-45BE-9B13-EF230BC6C2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,21 +36,6 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>copy move</t>
-  </si>
-  <si>
-    <t>splicing</t>
-  </si>
-  <si>
-    <t>deepfake</t>
-  </si>
-  <si>
-    <t>insertion</t>
-  </si>
-  <si>
-    <t>deletion</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -82,6 +67,21 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Copy Move</t>
+  </si>
+  <si>
+    <t>Splicing</t>
+  </si>
+  <si>
+    <t>Deep Fake</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,180 +421,180 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/mock_data.xlsx
+++ b/mock_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\My Files\vidforge\vid-img-forg-det\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF1F1A-8C53-45BE-9B13-EF230BC6C2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29588AFB-19D5-43E0-B7E3-173F0221C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,10 +78,10 @@
     <t>Deep Fake</t>
   </si>
   <si>
-    <t>Insertion</t>
-  </si>
-  <si>
-    <t>Deletion</t>
+    <t>Insertion Forgery</t>
+  </si>
+  <si>
+    <t>Deletion Forgery</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/mock_data.xlsx
+++ b/mock_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\My Files\vidforge\vid-img-forg-det\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29588AFB-19D5-43E0-B7E3-173F0221C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E476BB4-1229-43A8-8D13-E066301E0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Deletion Forgery</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/vid.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/production ID_4713259.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/istockphoto.mp4</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/swan.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/scene.jpeg</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/photo.jpeg</t>
+  </si>
+  <si>
+    <t>C:/Users/Sagar/Downloads/images.jpeg</t>
   </si>
 </sst>
 </file>
@@ -402,7 +423,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,6 +461,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -463,6 +487,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -486,6 +513,9 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -509,6 +539,9 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -532,6 +565,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -555,6 +591,9 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -577,6 +616,9 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
